--- a/Matrix Prioritisation Method for CR by R. Schmid.xlsx
+++ b/Matrix Prioritisation Method for CR by R. Schmid.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
   <si>
     <t>Business Value Ranking</t>
   </si>
@@ -207,6 +207,17 @@
   </si>
   <si>
     <t>Parameters for the ranking</t>
+  </si>
+  <si>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Excel file refers to the paper "Evaluation of a Stakeholder Satisfaction-orianted Method for Prioritising Change Request" by Roman Schmid and Samuel Fricker which presents a Matrix Prioritisation Method for Change Request based on the factors business value, cost and risk. 
+Procedure:
+1. Define for the factor Business Value and Cost the scale depending on the ranks (In the example the top 3 CR get a value 5)
+2. Fill in the Excel es described in the mentioned paper.
+3. By set the Column "Preselection" the Stakeholder Satisfaction Chart will be filled in automatically.
+</t>
   </si>
 </sst>
 </file>
@@ -218,7 +229,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="&quot;CHF&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -295,6 +306,13 @@
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -340,7 +358,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -456,13 +474,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -557,6 +637,18 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20 % - Akzent2" xfId="1" builtinId="34"/>
@@ -1998,10 +2090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2009,6 +2101,7 @@
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" customWidth="1"/>
     <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2098,7 +2191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>3</v>
       </c>
@@ -2109,7 +2202,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>3</v>
       </c>
@@ -2121,7 +2214,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>6</v>
       </c>
@@ -2133,7 +2226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>12</v>
       </c>
@@ -2145,7 +2238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>15</v>
       </c>
@@ -2157,7 +2250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>4</v>
       </c>
@@ -2169,7 +2262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
         <v>20</v>
       </c>
@@ -2178,14 +2271,36 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="27" t="s">
         <v>22</v>
       </c>
     </row>
+    <row r="31" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="37"/>
+    </row>
+    <row r="33" spans="1:6" ht="131.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="40"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A33:F33"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 B18">
@@ -3401,6 +3516,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <RetentionPeriod xmlns="718B539C-DA94-4D81-AFD5-99DCB5FD22F5">10</RetentionPeriod>
@@ -3429,66 +3553,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Finma Document" ma:contentTypeID="0x0101003951D1F36BC944E987AD610ADE6A10C30021419E4486EE4E48897CB38F45170DE7" ma:contentTypeVersion="10" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="1d2acbe417e06b19548c9973e6d56cb0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d0d6e200-b297-41f3-bd3a-86b99210849c" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns4="718B539C-DA94-4D81-AFD5-99DCB5FD22F5" xmlns:ns5="718b539c-da94-4d81-afd5-99dcb5fd22f5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="22fde2dc6d4367708035d2cc99b810be" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="d0d6e200-b297-41f3-bd3a-86b99210849c"/>
@@ -3690,7 +3755,65 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0E238D8-1EA4-41B7-80BF-ACB5BF503FE2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64BD6CC3-8C34-4DC7-92CD-73ADDACD62EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -3709,23 +3832,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0E238D8-1EA4-41B7-80BF-ACB5BF503FE2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A772A6F-9B17-46A7-8BC8-7FE85913FE7C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8DB6685-95E2-471D-A723-A861FDE461E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3744,4 +3851,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A772A6F-9B17-46A7-8BC8-7FE85913FE7C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>